--- a/biology/Botanique/Rosier_brillant/Rosier_brillant.xlsx
+++ b/biology/Botanique/Rosier_brillant/Rosier_brillant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rosa nitida
-Le Rosier brillant[1] (Rosa nitida) est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier de la section des Carolinae, originaire d'Amérique du Nord.
+Le Rosier brillant (Rosa nitida) est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier de la section des Carolinae, originaire d'Amérique du Nord.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Très drageonnante, elle forme un petit buisson de 50 à 70 cm de haut, avec des tiges couvertes de poils et d'aiguillons, et des feuilles formées de 7 à 9 folioles vert vif rougissant à l'automne.
-Les fleurs, de 4 à 5 cm, sont d'une couleur rose tirant sur le violet, simples, isolées ou groupées[2].
+Les fleurs, de 4 à 5 cm, sont d'une couleur rose tirant sur le violet, simples, isolées ou groupées.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Rosa redutea ... rubescens Thory[3]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Rosa redutea ... rubescens Thory</t>
         </is>
       </c>
     </row>
